--- a/results/I3_N5_M3_T45_C100_DepCentral_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384127451</v>
+        <v>2086.098673017256</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.255379470587991</v>
+        <v>12.40185083848012</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.255379470587991</v>
+        <v>5.764833041814827</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.9200000000025</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.61</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,45 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -777,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -788,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -879,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -901,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -912,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -962,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>39.58582527041438</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.033760921216341</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>37.11679712152664</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32.81602556806575</v>
+        <v>42.40185083848012</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.96623907878366</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.82590537679314</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1078,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1092,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1106,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1120,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1134,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1148,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1162,15 +1129,183 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
@@ -1284,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -1295,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11">
@@ -1317,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>61.9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -1339,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09000000000066</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1350,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>67.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1361,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>66.09000000000066</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -1372,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>62.81000000000066</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1383,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>111.9900000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1394,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>117.0450000000004</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1405,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>115.3250000000004</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1416,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>112.33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1427,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>110.395</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1438,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.53</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -1449,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>115.89</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1460,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>114.45</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
@@ -1471,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>117.09</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
@@ -1482,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>110.24</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27">
@@ -1493,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
@@ -1504,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -1515,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31">
@@ -1537,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -1548,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000001</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
@@ -1559,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000001</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000001</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -1581,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000001</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36">
@@ -1592,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -1603,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>108.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1614,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>115.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1625,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>114.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1636,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>117.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1647,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>110.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1658,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.9900000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>117.0450000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1680,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>115.3250000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1691,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>112.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1702,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.395</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.995000000000083</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.510000000000066</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.665000000000081</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.505000000000077</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.530000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>14.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>17.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.24000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1859,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.99000000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1870,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>17.045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1881,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>15.32500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1892,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1903,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.395</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2016,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2027,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2038,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2049,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2060,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2071,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2082,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2093,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2115,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2126,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2137,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2148,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2294,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2170,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2181,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2192,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2203,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2214,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2299,10 +2434,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2310,10 +2445,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2321,10 +2456,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2332,10 +2467,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2343,10 +2478,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2354,10 +2489,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2368,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2379,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2390,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2401,9 +2536,75 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
